--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Npnt</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Npnt</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H2">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I2">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J2">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>134.0176858694844</v>
+        <v>207.409929694425</v>
       </c>
       <c r="R2">
-        <v>1206.15917282536</v>
+        <v>1866.689367249825</v>
       </c>
       <c r="S2">
-        <v>0.06943299930526885</v>
+        <v>0.1021693697044301</v>
       </c>
       <c r="T2">
-        <v>0.09561934809054537</v>
+        <v>0.1301505032386982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H3">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I3">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J3">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>143.4182274157667</v>
+        <v>251.61336890475</v>
       </c>
       <c r="R3">
-        <v>1290.7640467419</v>
+        <v>2264.52032014275</v>
       </c>
       <c r="S3">
-        <v>0.07430331019310059</v>
+        <v>0.1239438215329454</v>
       </c>
       <c r="T3">
-        <v>0.102326475202328</v>
+        <v>0.157888325948445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H4">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I4">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J4">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>72.0149773417911</v>
+        <v>142.0482157087</v>
       </c>
       <c r="R4">
-        <v>648.13479607612</v>
+        <v>1278.4339413783</v>
       </c>
       <c r="S4">
-        <v>0.03731011947640317</v>
+        <v>0.06997242942022418</v>
       </c>
       <c r="T4">
-        <v>0.05138146612144566</v>
+        <v>0.08913578431796459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H5">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I5">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J5">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>164.111274383785</v>
+        <v>154.9142848471875</v>
       </c>
       <c r="R5">
-        <v>984.6676463027101</v>
+        <v>929.4857090831251</v>
       </c>
       <c r="S5">
-        <v>0.08502413637684432</v>
+        <v>0.07631020783030106</v>
       </c>
       <c r="T5">
-        <v>0.07806040906256849</v>
+        <v>0.06480619374211971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9696033333333333</v>
+        <v>1.701075</v>
       </c>
       <c r="H6">
-        <v>2.90881</v>
+        <v>5.103225</v>
       </c>
       <c r="I6">
-        <v>0.3086976221779291</v>
+        <v>0.4476729925870095</v>
       </c>
       <c r="J6">
-        <v>0.3860913613682198</v>
+        <v>0.5378741343591031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>82.27758513171223</v>
+        <v>152.81714430225</v>
       </c>
       <c r="R6">
-        <v>740.4982661854101</v>
+        <v>1375.35429872025</v>
       </c>
       <c r="S6">
-        <v>0.04262705682631222</v>
+        <v>0.0752771640991087</v>
       </c>
       <c r="T6">
-        <v>0.05870366289133221</v>
+        <v>0.09589332711187555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.406111</v>
       </c>
       <c r="I7">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J7">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>18.71076365460178</v>
+        <v>16.505534041343</v>
       </c>
       <c r="R7">
-        <v>168.396872891416</v>
+        <v>148.549806372087</v>
       </c>
       <c r="S7">
-        <v>0.009693828328719319</v>
+        <v>0.008130565456164645</v>
       </c>
       <c r="T7">
-        <v>0.01334981283493919</v>
+        <v>0.01035728407443743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.406111</v>
       </c>
       <c r="I8">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J8">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>20.02321215687667</v>
+        <v>20.02321215687666</v>
       </c>
       <c r="R8">
         <v>180.20890941189</v>
       </c>
       <c r="S8">
-        <v>0.01037379258385054</v>
+        <v>0.009863360778050348</v>
       </c>
       <c r="T8">
-        <v>0.01428622260336448</v>
+        <v>0.01256464019110444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.406111</v>
       </c>
       <c r="I9">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J9">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>10.05430896595244</v>
+        <v>11.30409553364311</v>
       </c>
       <c r="R9">
-        <v>90.488780693572</v>
+        <v>101.736859802788</v>
       </c>
       <c r="S9">
-        <v>0.005209020159680959</v>
+        <v>0.005568355948302624</v>
       </c>
       <c r="T9">
-        <v>0.007173579088371677</v>
+        <v>0.007093362041680098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.406111</v>
       </c>
       <c r="I10">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J10">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>22.9122540665335</v>
+        <v>12.32796812477917</v>
       </c>
       <c r="R10">
-        <v>137.473524399201</v>
+        <v>73.96780874867501</v>
       </c>
       <c r="S10">
-        <v>0.01187057148735622</v>
+        <v>0.006072711826770599</v>
       </c>
       <c r="T10">
-        <v>0.01089833670291588</v>
+        <v>0.005157230603550888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.406111</v>
       </c>
       <c r="I11">
-        <v>0.04309855234281407</v>
+        <v>0.03562549695388759</v>
       </c>
       <c r="J11">
-        <v>0.05390381250635453</v>
+        <v>0.04280363938072684</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>11.48711410350789</v>
+        <v>12.16107917831</v>
       </c>
       <c r="R11">
-        <v>103.384026931571</v>
+        <v>109.44971260479</v>
       </c>
       <c r="S11">
-        <v>0.005951339783207046</v>
+        <v>0.005990502944599372</v>
       </c>
       <c r="T11">
-        <v>0.008195861276763286</v>
+        <v>0.007631122469953979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H12">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I12">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J12">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>10.66217416958489</v>
+        <v>233.08873177152</v>
       </c>
       <c r="R12">
-        <v>95.95956752626401</v>
+        <v>1398.53239062912</v>
       </c>
       <c r="S12">
-        <v>0.005523948028996743</v>
+        <v>0.1148186533083873</v>
       </c>
       <c r="T12">
-        <v>0.007607280611578592</v>
+        <v>0.09750936477672635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H13">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I13">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J13">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>11.41006211142333</v>
+        <v>282.7648663744</v>
       </c>
       <c r="R13">
-        <v>102.69055900281</v>
+        <v>1696.5891982464</v>
       </c>
       <c r="S13">
-        <v>0.005911420045165257</v>
+        <v>0.1392889347901186</v>
       </c>
       <c r="T13">
-        <v>0.008140885985969367</v>
+        <v>0.1182906710752998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H14">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I14">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J14">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>5.729364943554223</v>
+        <v>159.6347797751467</v>
       </c>
       <c r="R14">
-        <v>51.564284491988</v>
+        <v>957.80867865088</v>
       </c>
       <c r="S14">
-        <v>0.002968317125941449</v>
+        <v>0.07863550629693232</v>
       </c>
       <c r="T14">
-        <v>0.004087804809650281</v>
+        <v>0.06678094583913763</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H15">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I15">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J15">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>13.0563587881715</v>
+        <v>174.093758392</v>
       </c>
       <c r="R15">
-        <v>78.33815272902901</v>
+        <v>696.375033568</v>
       </c>
       <c r="S15">
-        <v>0.006764347144087426</v>
+        <v>0.08575794606647556</v>
       </c>
       <c r="T15">
-        <v>0.006210327180135705</v>
+        <v>0.04855310297035127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07713966666666668</v>
+        <v>1.91168</v>
       </c>
       <c r="H16">
-        <v>0.231419</v>
+        <v>3.82336</v>
       </c>
       <c r="I16">
-        <v>0.02455935417809833</v>
+        <v>0.5030980447474299</v>
       </c>
       <c r="J16">
-        <v>0.0307166424608249</v>
+        <v>0.4029778131168468</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>6.545837120195446</v>
+        <v>171.7369771584</v>
       </c>
       <c r="R16">
-        <v>58.91253408175901</v>
+        <v>1030.4218629504</v>
       </c>
       <c r="S16">
-        <v>0.003391321833907458</v>
+        <v>0.08459700428551599</v>
       </c>
       <c r="T16">
-        <v>0.00467034387349095</v>
+        <v>0.07184372845533178</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H17">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I17">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J17">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>261.0753266604947</v>
+        <v>6.302577804735999</v>
       </c>
       <c r="R17">
-        <v>1566.451959962968</v>
+        <v>56.72320024262399</v>
       </c>
       <c r="S17">
-        <v>0.1352600804665028</v>
+        <v>0.003104626681912984</v>
       </c>
       <c r="T17">
-        <v>0.1241818812984339</v>
+        <v>0.00395489104208249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H18">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I18">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J18">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>279.388204091995</v>
+        <v>7.645790327253332</v>
       </c>
       <c r="R18">
-        <v>1676.32922455197</v>
+        <v>68.81211294527999</v>
       </c>
       <c r="S18">
-        <v>0.144747768585645</v>
+        <v>0.003766288237880342</v>
       </c>
       <c r="T18">
-        <v>0.1328924998027579</v>
+        <v>0.004797761901832129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H19">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I19">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J19">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>140.2899446589927</v>
+        <v>4.316427534819555</v>
       </c>
       <c r="R19">
-        <v>841.7396679539559</v>
+        <v>38.84784781337599</v>
       </c>
       <c r="S19">
-        <v>0.07268258339821096</v>
+        <v>0.002126256352610947</v>
       </c>
       <c r="T19">
-        <v>0.06672966564037652</v>
+        <v>0.002708574351661039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H20">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I20">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J20">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>319.6996298693182</v>
+        <v>4.707389538933334</v>
       </c>
       <c r="R20">
-        <v>1278.798519477273</v>
+        <v>28.2443372336</v>
       </c>
       <c r="S20">
-        <v>0.1656326479195344</v>
+        <v>0.002318842800123538</v>
       </c>
       <c r="T20">
-        <v>0.1013778973177664</v>
+        <v>0.001969269643407451</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.8888515</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H21">
-        <v>3.777703</v>
+        <v>0.155072</v>
       </c>
       <c r="I21">
-        <v>0.6013634098107625</v>
+        <v>0.01360346571167306</v>
       </c>
       <c r="J21">
-        <v>0.501421025819771</v>
+        <v>0.01634441314332306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>160.2821842187139</v>
+        <v>4.64366360512</v>
       </c>
       <c r="R21">
-        <v>961.6931053122831</v>
+        <v>41.79297244607999</v>
       </c>
       <c r="S21">
-        <v>0.08304032944086938</v>
+        <v>0.002287451639145243</v>
       </c>
       <c r="T21">
-        <v>0.07623908176043619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H22">
-        <v>0.209951</v>
-      </c>
-      <c r="I22">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J22">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>138.2190853333333</v>
-      </c>
-      <c r="N22">
-        <v>414.657256</v>
-      </c>
-      <c r="O22">
-        <v>0.2249223651785973</v>
-      </c>
-      <c r="P22">
-        <v>0.2476599003709697</v>
-      </c>
-      <c r="Q22">
-        <v>9.673078394939559</v>
-      </c>
-      <c r="R22">
-        <v>87.05770555445602</v>
-      </c>
-      <c r="S22">
-        <v>0.005011509049109603</v>
-      </c>
-      <c r="T22">
-        <v>0.006901577535472615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H23">
-        <v>0.209951</v>
-      </c>
-      <c r="I23">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J23">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>147.91433</v>
-      </c>
-      <c r="N23">
-        <v>443.74299</v>
-      </c>
-      <c r="O23">
-        <v>0.2406993279341594</v>
-      </c>
-      <c r="P23">
-        <v>0.2650317656414439</v>
-      </c>
-      <c r="Q23">
-        <v>10.35158716594334</v>
-      </c>
-      <c r="R23">
-        <v>93.16428449349002</v>
-      </c>
-      <c r="S23">
-        <v>0.005363036526397966</v>
-      </c>
-      <c r="T23">
-        <v>0.007385682047024034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H24">
-        <v>0.209951</v>
-      </c>
-      <c r="I24">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J24">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>74.27261733333333</v>
-      </c>
-      <c r="N24">
-        <v>222.817852</v>
-      </c>
-      <c r="O24">
-        <v>0.1208629960061633</v>
-      </c>
-      <c r="P24">
-        <v>0.1330811078998542</v>
-      </c>
-      <c r="Q24">
-        <v>5.197870093916889</v>
-      </c>
-      <c r="R24">
-        <v>46.78083084525201</v>
-      </c>
-      <c r="S24">
-        <v>0.002692955845926796</v>
-      </c>
-      <c r="T24">
-        <v>0.003708592240010052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H25">
-        <v>0.209951</v>
-      </c>
-      <c r="I25">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J25">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>169.2560955</v>
-      </c>
-      <c r="N25">
-        <v>338.512191</v>
-      </c>
-      <c r="O25">
-        <v>0.275428543235871</v>
-      </c>
-      <c r="P25">
-        <v>0.2021811852664618</v>
-      </c>
-      <c r="Q25">
-        <v>11.8451621687735</v>
-      </c>
-      <c r="R25">
-        <v>71.07097301264102</v>
-      </c>
-      <c r="S25">
-        <v>0.006136840308048601</v>
-      </c>
-      <c r="T25">
-        <v>0.005634215003075251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.06998366666666668</v>
-      </c>
-      <c r="H26">
-        <v>0.209951</v>
-      </c>
-      <c r="I26">
-        <v>0.02228106149039587</v>
-      </c>
-      <c r="J26">
-        <v>0.02786715784482972</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.85695366666668</v>
-      </c>
-      <c r="N26">
-        <v>254.570861</v>
-      </c>
-      <c r="O26">
-        <v>0.138086767645209</v>
-      </c>
-      <c r="P26">
-        <v>0.1520460408212704</v>
-      </c>
-      <c r="Q26">
-        <v>5.93860075975678</v>
-      </c>
-      <c r="R26">
-        <v>53.44740683781102</v>
-      </c>
-      <c r="S26">
-        <v>0.00307671976091291</v>
-      </c>
-      <c r="T26">
-        <v>0.004237091019247766</v>
+        <v>0.002913916204339955</v>
       </c>
     </row>
   </sheetData>
